--- a/test files/Scoring_Sheet_Test_Files_Team_6_December5th.xlsx
+++ b/test files/Scoring_Sheet_Test_Files_Team_6_December5th.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -157,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,6 +212,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -304,7 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -326,6 +333,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -374,6 +384,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF339933"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -701,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -837,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="16">
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1708,47 +1723,47 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="21">
         <v>123</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="C20" s="22"/>
+      <c r="D20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K20" s="23">
         <v>3.0224129999999998E-2</v>
       </c>
-      <c r="L20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="M20" s="4">
+      <c r="L20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="M20" s="23">
         <v>0.19567884999999999</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="23">
         <v>0.25356526000000001</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="23">
         <v>0.12269979</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="20">
         <v>0.31783197000000002</v>
       </c>
       <c r="R20" s="3">
@@ -1817,47 +1832,47 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="21">
         <v>137</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="M21" s="4">
+      <c r="C21" s="22"/>
+      <c r="D21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="M21" s="23">
         <v>0.11399458</v>
       </c>
-      <c r="N21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="N21" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="O21" s="23">
         <v>0.17455683999999999</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="20">
         <v>0.61144858000000002</v>
       </c>
       <c r="R21" s="3">
@@ -1926,47 +1941,47 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="21">
         <v>152</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="C22" s="22"/>
+      <c r="D22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="23">
         <v>0.15227789999999999</v>
       </c>
-      <c r="L22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="M22" s="4">
+      <c r="L22" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="M22" s="23">
         <v>2.1694060000000001E-2</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="23">
         <v>0.26559059000000002</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="23">
         <v>0.12404546</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="20">
         <v>0.35639198999999999</v>
       </c>
       <c r="R22" s="3">
@@ -2227,47 +2242,47 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="18">
         <v>108</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="C28" s="19"/>
+      <c r="D28" s="18">
         <v>0.88</v>
       </c>
-      <c r="E28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P28" s="4">
+      <c r="E28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="K28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="M28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="N28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="O28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="P28" s="20">
         <v>0.01</v>
       </c>
       <c r="R28" s="3">
@@ -2336,47 +2351,47 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="21">
         <v>122</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="C29" s="22"/>
+      <c r="D29" s="18">
         <v>0.88</v>
       </c>
-      <c r="E29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="L29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P29" s="4">
+      <c r="E29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="M29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="N29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P29" s="23">
         <v>0.01</v>
       </c>
       <c r="R29" s="3">
@@ -2445,47 +2460,47 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="21">
         <v>140</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
+      <c r="C30" s="22"/>
+      <c r="D30" s="18">
         <v>0.88</v>
       </c>
-      <c r="E30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P30" s="4">
+      <c r="E30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="N30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P30" s="23">
         <v>0.01</v>
       </c>
       <c r="R30" s="3">
@@ -2554,324 +2569,436 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="B31" s="21">
+        <v>153</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0.01</v>
+      </c>
       <c r="R31" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T31" s="11">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U31" s="13"/>
-      <c r="V31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH31" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="18.75">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="B32" s="21">
+        <v>167</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="N32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0.01</v>
+      </c>
       <c r="R32" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T32" s="11">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U32" s="13"/>
-      <c r="V32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH32" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="18.75">
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="B33" s="21">
+        <v>185</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0.01</v>
+      </c>
       <c r="R33" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T33" s="11">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U33" s="13"/>
-      <c r="V33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH33" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="18.75">
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="B34" s="21">
+        <v>198</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0.01</v>
+      </c>
       <c r="R34" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T34" s="11">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U34" s="13"/>
-      <c r="V34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH34" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="V34">
+        <f t="shared" si="6"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -2938,9 +3065,9 @@
         <f>SUM(D36:P36)</f>
         <v>1</v>
       </c>
-      <c r="T36" s="14" t="e">
+      <c r="T36" s="14">
         <f>AVERAGE(T27:T34)</f>
-        <v>#NUM!</v>
+        <v>0.81557542886257273</v>
       </c>
     </row>
     <row r="37" spans="1:34">
@@ -3282,47 +3409,47 @@
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="18">
         <v>88</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1">
+      <c r="C41" s="19"/>
+      <c r="D41" s="18">
         <v>0.872</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="20">
         <v>1.066667E-2</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="20">
         <v>1.066667E-2</v>
       </c>
       <c r="R41" s="3">
@@ -3391,324 +3518,436 @@
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="B42" s="21">
+        <v>102</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="M42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="N42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O42" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P42" s="23">
+        <v>0.01</v>
+      </c>
       <c r="R42" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T42" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U42" s="13"/>
-      <c r="V42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH42" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
+      <c r="V42">
+        <f t="shared" si="9"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="18.75">
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>120</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="D43" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0.01</v>
+      </c>
       <c r="R43" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T43" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U43" s="13"/>
-      <c r="V43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH43" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
+      <c r="V43">
+        <f t="shared" si="9"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="18.75">
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1">
+        <v>133</v>
+      </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="D44" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0.01</v>
+      </c>
       <c r="R44" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T44" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U44" s="13"/>
-      <c r="V44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH44" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
+      <c r="V44">
+        <f t="shared" si="9"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="18.75">
       <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1">
+        <v>151</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="D45" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.01</v>
+      </c>
       <c r="R45" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T45" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>0.81557542886257262</v>
       </c>
       <c r="U45" s="13"/>
-      <c r="V45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
+      <c r="V45">
+        <f t="shared" si="9"/>
+        <v>0.81557542886257262</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -3763,9 +4002,9 @@
         <f>SUM(D47:P47)</f>
         <v>1</v>
       </c>
-      <c r="T47" s="14" t="e">
+      <c r="T47" s="14">
         <f>AVERAGE(T38:T45)</f>
-        <v>#NUM!</v>
+        <v>0.73295850864683865</v>
       </c>
     </row>
     <row r="48" spans="1:34">
@@ -3829,7 +4068,7 @@
       </c>
       <c r="T49" s="11">
         <f>SUM(V49:AH49)</f>
-        <v>0</v>
+        <v>-2.0588936890535683</v>
       </c>
       <c r="U49" s="13"/>
       <c r="V49">
@@ -3842,7 +4081,7 @@
       </c>
       <c r="X49">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.0588936890535683</v>
       </c>
       <c r="Y49">
         <f t="shared" si="12"/>
@@ -3938,7 +4177,7 @@
       </c>
       <c r="T50" s="11">
         <f t="shared" ref="T50:T56" si="13">SUM(V50:AH50)</f>
-        <v>0</v>
+        <v>-2.0588936890535683</v>
       </c>
       <c r="U50" s="13"/>
       <c r="V50">
@@ -3951,7 +4190,7 @@
       </c>
       <c r="X50">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.0588936890535683</v>
       </c>
       <c r="Y50">
         <f t="shared" si="12"/>
@@ -4047,7 +4286,7 @@
       </c>
       <c r="T51" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2.0588936890535683</v>
       </c>
       <c r="U51" s="13"/>
       <c r="V51">
@@ -4060,7 +4299,7 @@
       </c>
       <c r="X51">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.0588936890535683</v>
       </c>
       <c r="Y51">
         <f t="shared" si="12"/>
@@ -4156,7 +4395,7 @@
       </c>
       <c r="T52" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-0.16386334392742816</v>
       </c>
       <c r="U52" s="13"/>
       <c r="V52">
@@ -4169,7 +4408,7 @@
       </c>
       <c r="X52">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.16386334392742816</v>
       </c>
       <c r="Y52">
         <f t="shared" si="12"/>
@@ -4216,324 +4455,436 @@
       <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="18">
+        <v>153</v>
+      </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
+      <c r="D53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="E53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0.63922593000000005</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="J53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="K53" s="18">
+        <v>9.6085710000000005E-2</v>
+      </c>
+      <c r="L53" s="20">
+        <v>0.16468836000000001</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="N53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="O53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="P53" s="18">
+        <v>0.01</v>
+      </c>
       <c r="R53" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T53" s="11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>3.9393603377599717</v>
       </c>
       <c r="U53" s="13"/>
-      <c r="V53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH53" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
+      <c r="V53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="12"/>
+        <v>3.9393603377599717</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="18.75">
       <c r="A54" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
+      <c r="B54" s="21">
+        <v>171</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0.72455185</v>
+      </c>
+      <c r="G54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="J54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="L54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="M54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="N54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="O54" s="23">
+        <v>0.16544814999999999</v>
+      </c>
+      <c r="P54" s="21">
+        <v>0.01</v>
+      </c>
       <c r="R54" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="T54" s="11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>4.1201233406971216</v>
       </c>
       <c r="U54" s="13"/>
-      <c r="V54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH54" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
+      <c r="V54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="12"/>
+        <v>4.1201233406971216</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="18.75">
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1">
+        <v>190</v>
+      </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
+      <c r="D55" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0.85706872999999995</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2.5709050000000001E-2</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="O55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1.0722219999999999E-2</v>
+      </c>
       <c r="R55" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="11" t="e">
+        <v>0.99999998000000001</v>
+      </c>
+      <c r="T55" s="11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>4.3624453073177545</v>
       </c>
       <c r="U55" s="13"/>
-      <c r="V55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH55" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
+      <c r="V55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="12"/>
+        <v>4.3624453073177545</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="18.75">
       <c r="A56" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="1">
+        <v>210</v>
+      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="D56" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0.86808333000000004</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="O56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1.1083330000000001E-2</v>
+      </c>
       <c r="R56" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="11" t="e">
+        <v>0.99999995999999947</v>
+      </c>
+      <c r="T56" s="11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>4.3808679439038238</v>
       </c>
       <c r="U56" s="13"/>
-      <c r="V56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AH56" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
+      <c r="V56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="12"/>
+        <v>4.3808679439038238</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:34">
@@ -4552,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -4586,11 +4937,11 @@
       </c>
       <c r="R58" s="3">
         <f>SUM(D58:P58)</f>
-        <v>0</v>
-      </c>
-      <c r="T58" s="14" t="e">
+        <v>1</v>
+      </c>
+      <c r="T58" s="14">
         <f>AVERAGE(T49:T56)</f>
-        <v>#NUM!</v>
+        <v>1.3077815648238174</v>
       </c>
     </row>
   </sheetData>
